--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1477220.74406172</v>
+        <v>1555924.980295917</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083133</v>
+        <v>606553.2040797161</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6006572.399586819</v>
+        <v>6463353.368211091</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>381.509228813257</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>343.619527833533</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +819,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>116.0434079398612</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -865,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -899,13 +901,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>56.36265220884267</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>354.1618042993002</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>27.9735834668218</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1108,10 +1110,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>172.6623007436913</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>378.4804603970941</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>36.56453789817022</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>61.43755362246768</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.133574646794665</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>10.1507312021315</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>200.3206940751929</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>24.34318456170487</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>167.3917956442259</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>271.7368624962572</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1777,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022995</v>
       </c>
       <c r="H16" t="n">
-        <v>85.5532963163071</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.45405731752537</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735226111</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.145473979029</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2485,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>34.2167775145674</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225841</v>
+        <v>31.24391673888106</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>219.2875345484105</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>114.8528499950178</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3661,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3721,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>238.2089170332824</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.1476381228696</v>
       </c>
       <c r="V41" t="n">
-        <v>166.9539245507275</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>24.3431845617048</v>
       </c>
       <c r="H43" t="n">
-        <v>24.34318456170487</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3986,13 +3988,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>272.1494839753886</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>179.4534732974501</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>155.4289015982194</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1735.906148501163</v>
+        <v>1671.54282645597</v>
       </c>
       <c r="C2" t="n">
-        <v>1297.763675684586</v>
+        <v>1637.440757679797</v>
       </c>
       <c r="D2" t="n">
-        <v>912.4008182974576</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E2" t="n">
-        <v>882.6664774961569</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F2" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
         <v>53.40121652862856</v>
@@ -4328,16 +4330,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
         <v>632.7278666362198</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V2" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W2" t="n">
-        <v>2585.593902066702</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X2" t="n">
-        <v>2570.491842686417</v>
+        <v>1698.047712560416</v>
       </c>
       <c r="Y2" t="n">
-        <v>2162.20571898607</v>
+        <v>1693.801992900473</v>
       </c>
     </row>
     <row r="3">
@@ -4410,7 +4412,7 @@
         <v>377.9595414948409</v>
       </c>
       <c r="K3" t="n">
-        <v>1038.799596036619</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="L3" t="n">
         <v>1038.799596036619</v>
@@ -4425,10 +4427,10 @@
         <v>1038.799596036619</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1699.639650578398</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>624.2616690759949</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>624.2616690759949</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
         <v>624.2616690759949</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>978.3722678587817</v>
+        <v>1819.558022317326</v>
       </c>
       <c r="C5" t="n">
-        <v>540.2297950422051</v>
+        <v>1381.415549500749</v>
       </c>
       <c r="D5" t="n">
-        <v>508.3604142570537</v>
+        <v>945.5057646751934</v>
       </c>
       <c r="E5" t="n">
-        <v>478.6260734557529</v>
+        <v>511.7310198334886</v>
       </c>
       <c r="F5" t="n">
         <v>454.7990479053647</v>
@@ -4568,7 +4570,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
         <v>714.2412710704069</v>
@@ -4577,10 +4579,10 @@
         <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>1375.081325612185</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O5" t="n">
-        <v>2035.921380153963</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P5" t="n">
         <v>2500.906761678371</v>
@@ -4592,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>2181.553498026298</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>1762.411034605609</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.67183834369</v>
+        <v>2245.857592802233</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>277.7880908295411</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>277.7880908295411</v>
       </c>
       <c r="L6" t="n">
-        <v>79.46488968908616</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="M6" t="n">
-        <v>740.3049442308645</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="N6" t="n">
-        <v>1401.144998772643</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P6" t="n">
         <v>1599.468199913098</v>
@@ -4756,19 +4758,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2243.522190013252</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1160.715522056492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1331.865744460758</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C8" t="n">
-        <v>893.7232716441818</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>511.4197762935816</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
         <v>53.81800590148855</v>
@@ -4805,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4829,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2585.593902066702</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>2166.451438646013</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1758.165314945666</v>
+        <v>1809.129031756954</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>962.7013733912472</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C10" t="n">
-        <v>790.1396618744722</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>624.2616690759949</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -5005,7 +5007,7 @@
         <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1154.519992110234</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1556.022494344318</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1556.022494344318</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1120.112709518763</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>686.3379646770577</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>258.4705350862654</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171366</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677763</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>750.6905954094008</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="L11" t="n">
-        <v>870.6928053750404</v>
+        <v>1604.084753024631</v>
       </c>
       <c r="M11" t="n">
-        <v>870.6928053750404</v>
+        <v>2761.132588235182</v>
       </c>
       <c r="N11" t="n">
-        <v>870.6928053750404</v>
+        <v>3886.863571671629</v>
       </c>
       <c r="O11" t="n">
-        <v>1565.257001127664</v>
+        <v>3886.863571671629</v>
       </c>
       <c r="P11" t="n">
-        <v>2259.821196880287</v>
+        <v>3972.852115231032</v>
       </c>
       <c r="Q11" t="n">
-        <v>2806.319982838882</v>
+        <v>4519.350901189627</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.85309212652</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999559</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316575</v>
       </c>
       <c r="V11" t="n">
-        <v>2806.319982838882</v>
+        <v>3762.946612250402</v>
       </c>
       <c r="W11" t="n">
-        <v>2401.464528249915</v>
+        <v>3358.091157661435</v>
       </c>
       <c r="X11" t="n">
-        <v>1982.322064829226</v>
+        <v>2938.948694240746</v>
       </c>
       <c r="Y11" t="n">
-        <v>1982.322064829226</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>380.68472462299</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="K12" t="n">
-        <v>1061.418244693367</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.418244693367</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="M12" t="n">
-        <v>1061.418244693367</v>
+        <v>479.432103632509</v>
       </c>
       <c r="N12" t="n">
-        <v>1061.418244693367</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="O12" t="n">
-        <v>1178.627222503511</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P12" t="n">
-        <v>1178.627222503511</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>765.6202370743899</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C13" t="n">
-        <v>593.0585255576149</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>427.1805327591376</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>257.4225290098748</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>80.71547497163104</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>80.71547497163104</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="H13" t="n">
-        <v>80.71547497163104</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2513.544640857574</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.665194436029</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>1989.232193689134</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.276685559565</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.250281145856</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.858526479269</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>957.4388557933771</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1490.384067312716</v>
+        <v>2104.363000055492</v>
       </c>
       <c r="C14" t="n">
-        <v>1490.384067312716</v>
+        <v>1666.220527238915</v>
       </c>
       <c r="D14" t="n">
-        <v>1054.474282487161</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E14" t="n">
-        <v>885.391660624306</v>
+        <v>796.5359975716547</v>
       </c>
       <c r="F14" t="n">
-        <v>457.5242310335137</v>
+        <v>368.6685679808624</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171366</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171366</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="K14" t="n">
-        <v>750.6905954094008</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="L14" t="n">
-        <v>870.6928053750404</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="M14" t="n">
-        <v>870.6928053750404</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N14" t="n">
-        <v>870.6928053750404</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O14" t="n">
-        <v>1565.257001127664</v>
+        <v>3144.542240397636</v>
       </c>
       <c r="P14" t="n">
-        <v>2259.821196880287</v>
+        <v>3972.852115231032</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838882</v>
+        <v>4519.350901189627</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.668109022718</v>
+        <v>4604.85309212652</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.668109022718</v>
+        <v>4384.785864999559</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.668109022718</v>
+        <v>4125.563562316575</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.668109022718</v>
+        <v>3762.946612250402</v>
       </c>
       <c r="W14" t="n">
-        <v>2317.812654433752</v>
+        <v>3358.091157661435</v>
       </c>
       <c r="X14" t="n">
-        <v>1898.670191013063</v>
+        <v>2938.948694240746</v>
       </c>
       <c r="Y14" t="n">
-        <v>1490.384067312716</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723522</v>
+        <v>93.8062990346578</v>
       </c>
       <c r="J15" t="n">
-        <v>82.19007281723522</v>
+        <v>418.3646240008701</v>
       </c>
       <c r="K15" t="n">
-        <v>82.19007281723522</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>776.7542685698584</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>776.7542685698584</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>776.7542685698584</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>776.7542685698584</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1471.318464322482</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>993.0399077602817</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C16" t="n">
-        <v>820.4781962435067</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D16" t="n">
-        <v>654.6002034450294</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8421996957666</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F16" t="n">
-        <v>308.1351456575228</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G16" t="n">
-        <v>142.5438706833505</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.276685559565</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.250281145856</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.858526479269</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>1184.858526479269</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,19 +5518,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2291.478512820577</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
@@ -5540,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1327.049347523737</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5753,25 +5755,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>388.1086717343214</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5935,22 +5937,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130891</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.801834709346</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962451</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832882</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419173</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.995166752586</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
         <v>1144.575496066698</v>
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5993,10 +5995,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3365.117609755799</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>3192.555898239023</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D28" t="n">
-        <v>3026.677905440546</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="E28" t="n">
-        <v>2856.919901691283</v>
+        <v>476.1186811406514</v>
       </c>
       <c r="F28" t="n">
-        <v>2680.21284765304</v>
+        <v>299.4116271024076</v>
       </c>
       <c r="G28" t="n">
-        <v>2514.621572678867</v>
+        <v>133.8203521282352</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5113.042013538981</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>4867.162567117437</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>4588.729566370543</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>4301.774058240973</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>4029.747653827265</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>3784.355899160677</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>3556.936228474786</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,16 +6472,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2837.977298779171</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6652,19 +6654,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2070.879253605493</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1783.923745475924</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1511.897341062215</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6935,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1286.300469346935</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>1286.300469346935</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2443.348304557486</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993933</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7011,13 +7013,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
         <v>1107.588885023173</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>560.572149076143</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>383.8650950378992</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>218.2738200637269</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,16 +7177,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
         <v>3569.079287993933</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1507.79605846318</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1262.404303796593</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1034.984633110701</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1792.237621104267</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>1354.09514828769</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>918.1853634621348</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>484.4106186204299</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>56.54318902963762</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>56.54318902963762</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="K41" t="n">
-        <v>1185.945282862319</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="L41" t="n">
-        <v>1880.509478614942</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="M41" t="n">
-        <v>1880.509478614942</v>
+        <v>1207.785655143939</v>
       </c>
       <c r="N41" t="n">
-        <v>1880.509478614942</v>
+        <v>2333.516638580386</v>
       </c>
       <c r="O41" t="n">
-        <v>1880.509478614942</v>
+        <v>3313.696305150692</v>
       </c>
       <c r="P41" t="n">
-        <v>2259.821196880287</v>
+        <v>4142.006179984089</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.85309212652</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999559</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838882</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="V41" t="n">
-        <v>2637.679655009864</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W41" t="n">
-        <v>2637.679655009864</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>2218.537191589175</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
-        <v>2218.537191589175</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>82.19007281723522</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>82.19007281723522</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L42" t="n">
-        <v>776.7542685698584</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M42" t="n">
-        <v>907.6291872886236</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N42" t="n">
-        <v>907.6291872886236</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O42" t="n">
-        <v>907.6291872886236</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P42" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>765.6202370743899</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C43" t="n">
-        <v>593.0585255576149</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D43" t="n">
-        <v>427.1805327591376</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E43" t="n">
-        <v>257.4225290098748</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F43" t="n">
-        <v>80.71547497163104</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G43" t="n">
-        <v>80.71547497163104</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2513.544640857574</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.665194436029</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>1989.232193689134</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V43" t="n">
-        <v>1702.276685559565</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.250281145856</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X43" t="n">
-        <v>1184.858526479269</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y43" t="n">
-        <v>957.4388557933771</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1214.941083880822</v>
+        <v>2104.363000055492</v>
       </c>
       <c r="C44" t="n">
-        <v>1214.941083880822</v>
+        <v>1666.220527238915</v>
       </c>
       <c r="D44" t="n">
-        <v>779.0312990552661</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E44" t="n">
-        <v>345.2565542135613</v>
+        <v>796.5359975716547</v>
       </c>
       <c r="F44" t="n">
-        <v>345.2565542135613</v>
+        <v>368.6685679808624</v>
       </c>
       <c r="G44" t="n">
-        <v>345.2565542135613</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5387406219836</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1396.102936374607</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>1396.102936374607</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>2090.66713212723</v>
+        <v>3564.166028419256</v>
       </c>
       <c r="O44" t="n">
-        <v>2090.66713212723</v>
+        <v>3691.04102635623</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.66713212723</v>
+        <v>4519.350901189627</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189627</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.85309212652</v>
       </c>
       <c r="T44" t="n">
-        <v>2586.25275571192</v>
+        <v>4384.785864999559</v>
       </c>
       <c r="U44" t="n">
-        <v>2586.25275571192</v>
+        <v>4125.563562316575</v>
       </c>
       <c r="V44" t="n">
-        <v>2223.635805645747</v>
+        <v>3762.946612250402</v>
       </c>
       <c r="W44" t="n">
-        <v>2042.369671001858</v>
+        <v>3358.091157661435</v>
       </c>
       <c r="X44" t="n">
-        <v>1623.227207581168</v>
+        <v>2938.948694240746</v>
       </c>
       <c r="Y44" t="n">
-        <v>1214.941083880822</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351366</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188008</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334561</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661515</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277676</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.81587354386</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360073</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.14389452053</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486743</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744542</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838882</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287265</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617866</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617835</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679834</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413028</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651908</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431129</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>995.2823859590335</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>822.7206744422584</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>656.8426816437811</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>487.0846778945184</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>310.3776238562746</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2515.787119056326</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2269.907672634781</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>1991.474671887886</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1704.519163758317</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1432.492759344608</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1187.101004678021</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1187.101004678021</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
@@ -8058,11 +8060,11 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>20.13097499434639</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>17.17305800913118</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,22 +8218,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>469.6822035600077</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.5152066078567</v>
-      </c>
       <c r="P5" t="n">
-        <v>469.682203560008</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8289,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>226.6534083847602</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N6" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O6" t="n">
-        <v>200.3264657984394</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8453,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>121.2143535006461</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>86.85711470646766</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>363.2306375284826</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O12" t="n">
-        <v>118.3929068789328</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>121.2143535006461</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>922.772362927197</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949911526</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>132.1968875947123</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9164,22 +9166,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>685.7606250949696</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9240,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,19 +9251,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9401,13 +9403,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>288.7351832965068</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9416,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,13 +9643,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,19 +10120,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>395.0015281256929</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10346,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>756.3484258820585</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10598,16 +10600,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10823,19 +10825,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10899,13 +10901,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>571.1719812251592</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1125.268238207157</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>383.1431497629746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11136,16 +11138,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>132.1968875947123</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>701.5799957097204</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11297,25 +11299,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>212.2804580932203</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>128.1565635727015</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>411.8858435779272</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>197.0631589877758</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>63.43016517136654</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>262.0452017490618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>125.6469905667115</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H16" t="n">
-        <v>52.94985625022213</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627222</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>190.9286964644654</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142708</v>
+        <v>107.2592358276482</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>56.36113619101519</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>23.65030257151146</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>31.09722333628901</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>52.48244153328369</v>
       </c>
       <c r="V41" t="n">
-        <v>192.0368560147842</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1599680048243</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>125.2343690875801</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>221.3534267456269</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>2.220053416763903</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>375044.815454074</v>
+        <v>531377.622616452</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>375044.8154540739</v>
+        <v>531377.622616452</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>566639.33652393</v>
+        <v>566639.3365239298</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>375044.815454074</v>
+        <v>531377.6226164522</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>375044.8154540741</v>
+        <v>531377.622616452</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>375303.123923286</v>
+      </c>
+      <c r="C2" t="n">
+        <v>375303.1239232858</v>
+      </c>
+      <c r="D2" t="n">
         <v>375303.1239232861</v>
       </c>
-      <c r="C2" t="n">
-        <v>375303.123923286</v>
-      </c>
-      <c r="D2" t="n">
-        <v>375303.1239232859</v>
-      </c>
       <c r="E2" t="n">
-        <v>244099.9677817453</v>
+        <v>345850.0296919846</v>
       </c>
       <c r="F2" t="n">
-        <v>244099.9677817453</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="G2" t="n">
         <v>368800.3088961467</v>
       </c>
       <c r="H2" t="n">
-        <v>368800.3088961468</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="I2" t="n">
         <v>368800.3088961465</v>
@@ -26341,19 +26343,19 @@
         <v>368800.3088961466</v>
       </c>
       <c r="L2" t="n">
+        <v>368800.3088961465</v>
+      </c>
+      <c r="M2" t="n">
+        <v>368800.3088961467</v>
+      </c>
+      <c r="N2" t="n">
         <v>368800.3088961466</v>
       </c>
-      <c r="M2" t="n">
-        <v>368800.3088961465</v>
-      </c>
-      <c r="N2" t="n">
-        <v>368800.3088961465</v>
-      </c>
       <c r="O2" t="n">
-        <v>244099.9677817454</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="P2" t="n">
-        <v>244099.9677817452</v>
+        <v>345850.0296919845</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260783</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="C4" t="n">
         <v>122130.8532251352</v>
@@ -26424,10 +26426,10 @@
         <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>9428.555608343535</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="F4" t="n">
-        <v>9428.555608343535</v>
+        <v>13358.73276318391</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9428.555608343537</v>
+        <v>13358.73276318391</v>
       </c>
       <c r="P4" t="n">
-        <v>9428.555608343535</v>
+        <v>13358.73276318392</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232878</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232878</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26497,7 +26499,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232878</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232878</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-44739.9524476517</v>
+        <v>-44739.95244765177</v>
       </c>
       <c r="C6" t="n">
-        <v>178959.7461363931</v>
+        <v>178959.7461363929</v>
       </c>
       <c r="D6" t="n">
-        <v>178959.746136393</v>
+        <v>178959.7461363932</v>
       </c>
       <c r="E6" t="n">
-        <v>181844.3518337946</v>
+        <v>110560.267874724</v>
       </c>
       <c r="F6" t="n">
-        <v>192015.3484342507</v>
+        <v>261226.0214464719</v>
       </c>
       <c r="G6" t="n">
-        <v>118777.3877737523</v>
+        <v>247747.0555472537</v>
       </c>
       <c r="H6" t="n">
-        <v>276836.8647198617</v>
+        <v>276836.8647198615</v>
       </c>
       <c r="I6" t="n">
         <v>276836.8647198614</v>
@@ -26552,16 +26554,16 @@
         <v>276836.8647198614</v>
       </c>
       <c r="M6" t="n">
-        <v>268347.7830165206</v>
+        <v>151085.7763841707</v>
       </c>
       <c r="N6" t="n">
         <v>276836.8647198614</v>
       </c>
       <c r="O6" t="n">
-        <v>192015.3484342508</v>
+        <v>261226.0214464719</v>
       </c>
       <c r="P6" t="n">
-        <v>192015.3484342507</v>
+        <v>261226.0214464718</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778139</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990745</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778142</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778139</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990745</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>50.04145816404292</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>71.33151095294943</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>54.79268646174614</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27619,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>367.2261030860416</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27676,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.04145816404287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27828,10 +27830,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>53.07022658020577</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27913,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>367.6387245651729</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>109.3985407791396</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.0118993322381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28819,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-4.626503470622263e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29025,7 +29027,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.817562007254101e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,7 +34710,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
@@ -34778,11 +34780,11 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>20.13097499434639</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>17.17305800913118</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>469.6822035600077</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.5152066078567</v>
-      </c>
       <c r="P5" t="n">
-        <v>469.682203560008</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35009,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>226.6534083847602</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N6" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O6" t="n">
-        <v>200.3264657984394</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>121.2143535006461</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>86.85711470646766</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327045</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>363.2306375284826</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O12" t="n">
-        <v>118.3929068789328</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>121.2143535006461</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>922.772362927197</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>0.03656536949911526</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>132.1968875947123</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35884,22 +35886,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>685.7606250949696</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35960,7 +35962,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36121,13 +36123,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>288.7351832965068</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36136,13 +36138,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,13 +36363,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,19 +36840,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>395.0015281256929</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>756.3484258820585</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37318,16 +37320,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37543,19 +37545,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37619,13 +37621,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>571.1719812251592</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1125.268238207157</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>383.1431497629746</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>132.1968875947123</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>701.5799957097204</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>212.2804580932203</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>128.1565635727015</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1555924.980295917</v>
+        <v>1555318.89266702</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797161</v>
+        <v>606553.2040797154</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>267.519256446103</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>343.619527833533</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>120.1472970361152</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -867,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>56.36265220884267</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>328.3933971289195</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.9735834668218</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>347.6160279099794</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.56453789817022</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>61.43755362246768</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.1507312021315</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>130.983089089443</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1426,7 +1426,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.8284742946035</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1615,13 +1615,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>303.7900068265773</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>271.7368624962572</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480022995</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>166.3197703738368</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>103.3456594571954</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2250,7 +2250,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2487,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2535,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>123.2901323038659</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.2167775145674</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>31.24391673888106</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3246,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>123.2901323038659</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>114.8528499950178</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3480,10 +3480,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>238.2089170332824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>204.1476381228696</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>403.8720952516329</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.3431845617048</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>24.34318456170478</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>272.1494839753886</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>85.88055028655751</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>152.5168019860615</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1671.54282645597</v>
+        <v>462.0641869984253</v>
       </c>
       <c r="C2" t="n">
-        <v>1637.440757679797</v>
+        <v>427.9621182222527</v>
       </c>
       <c r="D2" t="n">
-        <v>1201.530972854241</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E2" t="n">
-        <v>767.7562280125366</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F2" t="n">
-        <v>743.9292024621484</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
         <v>342.5313710854123</v>
@@ -4333,49 +4333,49 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304466</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.993599304466</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V2" t="n">
-        <v>2449.993599304466</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W2" t="n">
-        <v>2045.1381447155</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.047712560416</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y2" t="n">
-        <v>1693.801992900473</v>
+        <v>732.2856581561051</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1699.639650578398</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F4" t="n">
         <v>447.554615037751</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1819.558022317326</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.415549500749</v>
+        <v>947.329561119137</v>
       </c>
       <c r="D5" t="n">
-        <v>945.5057646751934</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
-        <v>511.7310198334886</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4573,46 +4573,46 @@
         <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M5" t="n">
-        <v>714.2412710704069</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N5" t="n">
-        <v>1179.226652594814</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>1840.066707136593</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P5" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>2654.14371650258</v>
+        <v>1007.936515999756</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.857592802233</v>
+        <v>1003.690796339813</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>277.7880908295411</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>277.7880908295411</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1160.715522056492</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1786.86986531245</v>
+        <v>489.9592645846401</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.767796536277</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.858011710722</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4810,46 +4810,46 @@
         <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>1809.129031756954</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>933.2958513705998</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2363.585302738476</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>1925.442829921899</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1489.533045096344</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>1055.758300254639</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>627.8908706638467</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3170432484974</v>
+        <v>226.4930392871106</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171366</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>529.0247867717716</v>
+        <v>254.9523156162931</v>
       </c>
       <c r="K11" t="n">
-        <v>529.0247867717716</v>
+        <v>1089.302607574471</v>
       </c>
       <c r="L11" t="n">
-        <v>1604.084753024631</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M11" t="n">
-        <v>2761.132588235182</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N11" t="n">
-        <v>3886.863571671629</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>3886.863571671629</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231032</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189627</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.85309212652</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999559</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316575</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250402</v>
+        <v>4022.168914933386</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661435</v>
+        <v>3617.31346034442</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240746</v>
+        <v>3198.17099692373</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.662570540399</v>
+        <v>2789.884873223384</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
         <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>119.8337724793113</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>119.8337724793113</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>479.432103632509</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.266136395785</v>
+        <v>1049.143383158011</v>
       </c>
       <c r="C13" t="n">
-        <v>771.7044248790099</v>
+        <v>876.5816716412356</v>
       </c>
       <c r="D13" t="n">
-        <v>605.8264320805326</v>
+        <v>710.7036788427583</v>
       </c>
       <c r="E13" t="n">
-        <v>436.0684283312698</v>
+        <v>540.9456750934955</v>
       </c>
       <c r="F13" t="n">
-        <v>259.361374293026</v>
+        <v>364.2386210552518</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885367</v>
+        <v>198.6473460810794</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5226,25 +5226,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2692.190540178969</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.311093757424</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="U13" t="n">
-        <v>2167.878093010529</v>
+        <v>2272.755339772755</v>
       </c>
       <c r="V13" t="n">
-        <v>1880.92258488096</v>
+        <v>1985.799831643186</v>
       </c>
       <c r="W13" t="n">
-        <v>1608.896180467251</v>
+        <v>1713.773427229477</v>
       </c>
       <c r="X13" t="n">
-        <v>1363.504425800664</v>
+        <v>1468.38167256289</v>
       </c>
       <c r="Y13" t="n">
-        <v>1136.084755114772</v>
+        <v>1240.962001876998</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2104.363000055492</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C14" t="n">
-        <v>1666.220527238915</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D14" t="n">
         <v>1230.31074241336</v>
       </c>
       <c r="E14" t="n">
-        <v>796.5359975716547</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F14" t="n">
-        <v>368.6685679808624</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G14" t="n">
-        <v>94.18688869171366</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171366</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K14" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L14" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M14" t="n">
         <v>1250.817934529405</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.362573827329</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397636</v>
+        <v>3356.728584536158</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231032</v>
+        <v>4185.038459369553</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189627</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.85309212652</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.785864999559</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316575</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250402</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661435</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240746</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y14" t="n">
-        <v>2530.662570540399</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.8062990346578</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>418.3646240008701</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
         <v>1099.098144071247</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8461154418378</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>609.2844039250627</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>443.4064111265855</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E16" t="n">
-        <v>273.6484073773227</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F16" t="n">
-        <v>96.94135333907892</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G16" t="n">
-        <v>93.77009931885367</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885367</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5472,16 +5472,16 @@
         <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1718.502563927013</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="W16" t="n">
-        <v>1446.476159513304</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X16" t="n">
-        <v>1201.084404846717</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.664734160825</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>884.5847208382039</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>718.7067280397266</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>548.9487242904638</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>372.24167025222</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>206.6503952780477</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1248.965051073966</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>388.1086717343214</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5779,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5995,10 +5995,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1004.611946844417</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1196.430565563404</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>811.7546776883914</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>645.8766848899141</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>476.1186811406514</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>299.4116271024076</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>133.8203521282352</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6782,19 +6782,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6882,16 +6882,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
         <v>1889.413325832886</v>
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7019,19 +7019,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1068.769857140658</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>896.2081456238831</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>730.3301528254058</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>560.572149076143</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>383.8650950378992</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>218.2738200637269</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2292.381813755403</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1260.588475859645</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>843.1660143917137</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>843.1660143917137</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>677.2880215932364</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
-        <v>507.5300178439736</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F40" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1507.79605846318</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1262.404303796593</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1034.984633110701</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2519.992517327003</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>2081.850044510426</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1645.940259684871</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885367</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885367</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>93.77009931885367</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>93.77009931885367</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>1207.785655143939</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2333.516638580386</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3313.696305150692</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>4142.006179984089</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.85309212652</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999559</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>4178.576129521913</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.576129521913</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.720674932946</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.578211512257</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.29208781191</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
         <v>119.8337724793113</v>
@@ -7560,13 +7560,13 @@
         <v>118.359174633707</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885367</v>
+        <v>118.359174633707</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885367</v>
+        <v>118.359174633707</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055492</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.220527238915</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>1230.31074241336</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>796.5359975716547</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>368.6685679808624</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>93.77009931885367</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885367</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
         <v>529.0247867717716</v>
@@ -7660,40 +7660,40 @@
         <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>3564.166028419256</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>3691.04102635623</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P44" t="n">
-        <v>4519.350901189627</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189627</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.85309212652</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999559</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316575</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250402</v>
+        <v>3846.598486066566</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661435</v>
+        <v>3441.743031477599</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240746</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.662570540399</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7730,19 +7730,19 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P45" t="n">
         <v>1099.098144071247</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.266136395785</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="C46" t="n">
-        <v>771.7044248790099</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>605.8264320805326</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E46" t="n">
-        <v>436.0684283312698</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F46" t="n">
-        <v>259.361374293026</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G46" t="n">
-        <v>93.77009931885367</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885367</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7833,25 +7833,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2692.190540178969</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.311093757424</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U46" t="n">
-        <v>2167.878093010529</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V46" t="n">
-        <v>1880.92258488096</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.896180467251</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.504425800664</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y46" t="n">
-        <v>1136.084755114772</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>17.17305800913118</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,25 +8221,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>469.6822035600077</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>226.6534083847602</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8458,13 +8458,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,22 +8534,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>86.85711470646766</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8768,19 +8768,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>363.2306375284826</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8938,7 +8938,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>922.772362927197</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8947,10 +8947,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>508.5520268415457</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03656536949911526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>288.7351832965068</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,22 +9482,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9643,13 +9643,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9719,22 +9719,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10372,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1125.268238207157</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11308,19 +11308,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>128.1565635727015</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>411.8858435779272</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>155.2557639217729</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>34.67467827192574</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,10 +23466,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23503,13 +23503,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>125.6469905667105</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>125.6469905667115</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.766182674437</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>35.15749310933383</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>190.9286964644654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>107.2592358276482</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>23.65030257151146</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>31.09722333628901</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>52.48244153328369</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>11.07894353484949</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627258</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>63.43016517136662</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>125.2343690875801</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>329.0704884999249</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>37.38363054573577</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>531377.622616452</v>
+        <v>531377.6226164522</v>
       </c>
     </row>
     <row r="7">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>531377.622616452</v>
+        <v>531377.6226164522</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>375303.123923286</v>
       </c>
       <c r="C2" t="n">
-        <v>375303.1239232858</v>
+        <v>375303.123923286</v>
       </c>
       <c r="D2" t="n">
-        <v>375303.1239232861</v>
+        <v>375303.1239232859</v>
       </c>
       <c r="E2" t="n">
         <v>345850.0296919846</v>
@@ -26328,22 +26328,22 @@
         <v>345850.0296919845</v>
       </c>
       <c r="G2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="H2" t="n">
         <v>368800.3088961467</v>
       </c>
       <c r="I2" t="n">
-        <v>368800.3088961465</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="J2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="K2" t="n">
         <v>368800.3088961466</v>
       </c>
       <c r="L2" t="n">
-        <v>368800.3088961465</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="M2" t="n">
         <v>368800.3088961467</v>
@@ -26352,7 +26352,7 @@
         <v>368800.3088961466</v>
       </c>
       <c r="O2" t="n">
-        <v>345850.0296919845</v>
+        <v>345850.0296919846</v>
       </c>
       <c r="P2" t="n">
         <v>345850.0296919845</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717479</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260783</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>122130.8532251353</v>
       </c>
       <c r="C4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="D4" t="n">
         <v>122130.8532251352</v>
@@ -26429,7 +26429,7 @@
         <v>13358.73276318392</v>
       </c>
       <c r="F4" t="n">
-        <v>13358.73276318391</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26456,7 +26456,7 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>13358.73276318391</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="P4" t="n">
         <v>13358.73276318392</v>
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26499,7 +26499,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-44739.95244765177</v>
+        <v>-44739.95244765178</v>
       </c>
       <c r="C6" t="n">
-        <v>178959.7461363929</v>
+        <v>178959.746136393</v>
       </c>
       <c r="D6" t="n">
-        <v>178959.7461363932</v>
+        <v>178959.746136393</v>
       </c>
       <c r="E6" t="n">
-        <v>110560.267874724</v>
+        <v>110455.0782524692</v>
       </c>
       <c r="F6" t="n">
-        <v>261226.0214464719</v>
+        <v>261120.8318242171</v>
       </c>
       <c r="G6" t="n">
-        <v>247747.0555472537</v>
+        <v>247723.8312078709</v>
       </c>
       <c r="H6" t="n">
-        <v>276836.8647198615</v>
+        <v>276813.6403804788</v>
       </c>
       <c r="I6" t="n">
-        <v>276836.8647198614</v>
+        <v>276813.6403804788</v>
       </c>
       <c r="J6" t="n">
-        <v>102185.5160021554</v>
+        <v>102162.2916627727</v>
       </c>
       <c r="K6" t="n">
-        <v>276836.8647198614</v>
+        <v>276813.6403804788</v>
       </c>
       <c r="L6" t="n">
-        <v>276836.8647198614</v>
+        <v>276813.6403804788</v>
       </c>
       <c r="M6" t="n">
-        <v>151085.7763841707</v>
+        <v>151062.5520447881</v>
       </c>
       <c r="N6" t="n">
-        <v>276836.8647198614</v>
+        <v>276813.6403804788</v>
       </c>
       <c r="O6" t="n">
-        <v>261226.0214464719</v>
+        <v>261120.8318242172</v>
       </c>
       <c r="P6" t="n">
-        <v>261226.0214464718</v>
+        <v>261120.8318242172</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778139</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990745</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778142</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778139</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990745</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>154.5173183339557</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>71.33151095294943</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>44.07191583437728</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2261030860416</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>86.5576416575629</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>86.14502017843148</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>367.6387245651729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>109.3985407791396</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>17.17305800913118</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34941,25 +34941,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>469.6822035600077</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>226.6534083847602</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35178,13 +35178,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>86.85711470646766</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35488,19 +35488,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>363.2306375284826</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35658,7 +35658,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>922.772362927197</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35667,10 +35667,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>508.5520268415457</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03656536949911526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>288.7351832965068</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36202,22 +36202,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36363,13 +36363,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36439,22 +36439,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37092,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1125.268238207157</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38028,19 +38028,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>128.1565635727015</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
